--- a/с12v7SU.xlsx
+++ b/с12v7SU.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="8580"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="с12v7SU" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -291,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +522,37 @@
       <name val="Comic Sans MS"/>
       <family val="4"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -894,7 +926,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -918,6 +950,14 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1262,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection sqref="A1:XFD40"/>
     </sheetView>
   </sheetViews>
@@ -2015,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,94 +2094,96 @@
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="23" t="s">
         <v>65</v>
       </c>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="23" t="s">
         <v>80</v>
       </c>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>1</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>57</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>1</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>1</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="25" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2151,20 +2193,20 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
-        <v>1</v>
-      </c>
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="1:9" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
+        <v>1</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
@@ -2181,23 +2223,23 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:9" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <v>1</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
@@ -2334,17 +2376,17 @@
     </row>
     <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>1</v>
-      </c>
-      <c r="B26" s="12" t="s">
+    <row r="26" spans="1:4" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>1</v>
+      </c>
+      <c r="B26" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="30" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2362,17 +2404,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
+    <row r="28" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
         <v>15</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2547,5 +2589,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>